--- a/biology/Médecine/Liste_de_bactéries_pathogènes_pour_l'être_humain/Liste_de_bactéries_pathogènes_pour_l'être_humain.xlsx
+++ b/biology/Médecine/Liste_de_bactéries_pathogènes_pour_l'être_humain/Liste_de_bactéries_pathogènes_pour_l'être_humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_pathog%C3%A8nes_pour_l%27%C3%AAtre_humain</t>
+          <t>Liste_de_bactéries_pathogènes_pour_l'être_humain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -521,7 +533,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_pathog%C3%A8nes_pour_l%27%C3%AAtre_humain</t>
+          <t>Liste_de_bactéries_pathogènes_pour_l'être_humain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -539,7 +551,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Afipia felis
 Actinomyces israelii
@@ -554,7 +568,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_pathog%C3%A8nes_pour_l%27%C3%AAtre_humain</t>
+          <t>Liste_de_bactéries_pathogènes_pour_l'être_humain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -572,7 +586,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bacillus anthracis
 Bacillus cereus
@@ -596,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_pathog%C3%A8nes_pour_l%27%C3%AAtre_humain</t>
+          <t>Liste_de_bactéries_pathogènes_pour_l'être_humain</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -614,7 +630,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Campylobacter coli
 Campylobacter fetus
@@ -639,7 +657,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_pathog%C3%A8nes_pour_l%27%C3%AAtre_humain</t>
+          <t>Liste_de_bactéries_pathogènes_pour_l'être_humain</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -657,7 +675,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ehrlichia chaffeensis
 Ehrlichia equi
@@ -675,7 +695,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_pathog%C3%A8nes_pour_l%27%C3%AAtre_humain</t>
+          <t>Liste_de_bactéries_pathogènes_pour_l'être_humain</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -693,7 +713,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Francisella tularensis</t>
         </is>
@@ -705,7 +727,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_pathog%C3%A8nes_pour_l%27%C3%AAtre_humain</t>
+          <t>Liste_de_bactéries_pathogènes_pour_l'être_humain</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -723,7 +745,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Haemophilus ducreyi
 Haemophilus influenzae
@@ -737,7 +761,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_pathog%C3%A8nes_pour_l%27%C3%AAtre_humain</t>
+          <t>Liste_de_bactéries_pathogènes_pour_l'être_humain</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -755,7 +779,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Kingella kingae
 Klebsiella granulomatis
@@ -773,7 +799,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_pathog%C3%A8nes_pour_l%27%C3%AAtre_humain</t>
+          <t>Liste_de_bactéries_pathogènes_pour_l'être_humain</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -791,7 +817,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Legionella pneumophila
 Legionella longbeachae
@@ -807,7 +835,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_pathog%C3%A8nes_pour_l%27%C3%AAtre_humain</t>
+          <t>Liste_de_bactéries_pathogènes_pour_l'être_humain</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -825,7 +853,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Moraxella catharrhalis
 Mycobacterium leprae (bacille de Hansen)
@@ -844,7 +874,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_pathog%C3%A8nes_pour_l%27%C3%AAtre_humain</t>
+          <t>Liste_de_bactéries_pathogènes_pour_l'être_humain</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -862,7 +892,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Neisseria gonorrhoeae (gonocoque)
 Neisseria meningitidis (méningocoque)
@@ -876,7 +908,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_pathog%C3%A8nes_pour_l%27%C3%AAtre_humain</t>
+          <t>Liste_de_bactéries_pathogènes_pour_l'être_humain</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -894,7 +926,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Pantoea agglomerans
 Pasteurella multocida
@@ -914,7 +948,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_pathog%C3%A8nes_pour_l%27%C3%AAtre_humain</t>
+          <t>Liste_de_bactéries_pathogènes_pour_l'être_humain</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -932,7 +966,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Rickettsia africae
 Rickettsia conorii
@@ -949,7 +985,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_pathog%C3%A8nes_pour_l%27%C3%AAtre_humain</t>
+          <t>Liste_de_bactéries_pathogènes_pour_l'être_humain</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -967,7 +1003,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Salmonella typhimurium  (ou salmonelles mineures)
 Salmonella typhi, paratyphi (ou salmonelles majeures, responsables de la fièvre typhoïdes)
@@ -992,7 +1030,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_pathog%C3%A8nes_pour_l%27%C3%AAtre_humain</t>
+          <t>Liste_de_bactéries_pathogènes_pour_l'être_humain</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1010,7 +1048,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Tropheryma whipplei
 Treponema pallidum
@@ -1024,7 +1064,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_pathog%C3%A8nes_pour_l%27%C3%AAtre_humain</t>
+          <t>Liste_de_bactéries_pathogènes_pour_l'être_humain</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1042,7 +1082,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Ureaplasma urealyticum</t>
         </is>
@@ -1054,7 +1096,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_pathog%C3%A8nes_pour_l%27%C3%AAtre_humain</t>
+          <t>Liste_de_bactéries_pathogènes_pour_l'être_humain</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1072,7 +1114,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Vibrio cholerae (variétés cholerae et el tor)
 Vibrio vulnificus</t>
@@ -1085,7 +1129,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_pathog%C3%A8nes_pour_l%27%C3%AAtre_humain</t>
+          <t>Liste_de_bactéries_pathogènes_pour_l'être_humain</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1103,7 +1147,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">Yersinia pestis
 Yersinia enterocolitica
